--- a/NBi.Testing/Acceptance/Resources/Positive/OrderCountByYear.xlsx
+++ b/NBi.Testing/Acceptance/Resources/Positive/OrderCountByYear.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C7"/>
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
